--- a/Entregas-Atividades-ED-2024/AtividadeB1-4/EstadoMemoria_por comando.xlsx
+++ b/Entregas-Atividades-ED-2024/AtividadeB1-4/EstadoMemoria_por comando.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gapci\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{44119F65-A3B3-4967-8CEC-B611D0B52E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30108537-2940-48D0-8FF8-8C009A893751}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5473AD-96A1-4BAD-8CC3-8F37672298F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FC8D9CF2-461D-42B2-B271-95DF0DA0810C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC8D9CF2-461D-42B2-B271-95DF0DA0810C}"/>
   </bookViews>
   <sheets>
     <sheet name="EstadoMemoria_Posição Dinamica" sheetId="1" r:id="rId1"/>
     <sheet name="Estado Final da Memória" sheetId="21" r:id="rId2"/>
-    <sheet name="Prog1_Soma" sheetId="22" r:id="rId3"/>
+    <sheet name="Prog1_InserirExcluir" sheetId="22" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,9 +45,9 @@
   <commentList>
     <comment ref="F14" authorId="0" shapeId="0" xr:uid="{FE060582-7F0B-4052-B7D7-8CD57961FD46}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Informe a linha do comando no código fonte C</t>
       </text>
     </comment>
@@ -56,535 +56,479 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="163">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estamos supondo que o usuário inseriu apenas o primeiro nó, consultou, excluiu 
-                  &gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1º nó = 300
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">              </t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="155">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t># Linha de comando C</t>
   </si>
   <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Nome da variável</t>
+  </si>
+  <si>
+    <t>Local no programa (Onde está definido)</t>
+  </si>
+  <si>
+    <t>Endereço de memória</t>
+  </si>
+  <si>
+    <t>Legenda das cores</t>
+  </si>
+  <si>
+    <t>Provoca Alteração ema memória</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1414c</t>
+  </si>
+  <si>
+    <t>141A4</t>
+  </si>
+  <si>
+    <t>1417C</t>
+  </si>
+  <si>
+    <t>141F8</t>
+  </si>
+  <si>
+    <t>1421C</t>
+  </si>
+  <si>
+    <t>Valor FINAL da memória</t>
+  </si>
+  <si>
+    <t>141CC</t>
+  </si>
+  <si>
+    <t>/*----------------------------------------------------------------------------------*/</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>l</t>
   </si>
   <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>elemento_inseriur</t>
-  </si>
-  <si>
-    <t>1ºnó</t>
-  </si>
-  <si>
-    <t>elemento</t>
+    <t>lst_insere</t>
+  </si>
+  <si>
+    <t>10 | NULL</t>
+  </si>
+  <si>
+    <t>20 | 1417C</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;stdlib.h&gt;</t>
+  </si>
+  <si>
+    <t>struct lista {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   int info;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   struct lista* prox;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   };</t>
+  </si>
+  <si>
+    <t>typedef struct lista Lista;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   /* função de criação : retorna uma lista vazia*/</t>
+  </si>
+  <si>
+    <t>Lista* lst_cria (void)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   printf("*----------------------------------------------------*\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   printf("*            FATEC-ZL-    Estrutura de Dados         *\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   printf("*LAB1 - 21/09/2005    ##Lista encadeada              *\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   printf("*             Exemplo 6 : Deleta emento da lista        *\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   printf("*----------------------------------------------------*\n");   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> return NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   /*inserção no início: retorna a lista atualizada*/</t>
+  </si>
+  <si>
+    <t>Lista* lst_insere (Lista* l, int i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Lista* novo = (Lista*) malloc(sizeof(Lista));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   novo-&gt;info = i;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  novo-&gt;prox = l;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return novo;     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /*  printf ("Valor recebido : %d\n", i);  */</t>
+  </si>
+  <si>
+    <t>/*----------------------------------------------------------------------*/</t>
+  </si>
+  <si>
+    <t>/*        função imprime : Imprime valores dos elementos             */</t>
+  </si>
+  <si>
+    <t>void lst_imprime (Lista* l)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Lista* p;    /*Variável auxiliar para percorrer a lista */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      for (p = l; p!= NULL; p = p-&gt;prox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         printf("%d\n", p-&gt;info);</t>
+  </si>
+  <si>
+    <t>/*Função deleta : deleta elemento da lista                              */</t>
+  </si>
+  <si>
+    <t>int lst_deleta (Lista* l, int v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lista* ant = NULL; /* ponteiro para elemento anterior*/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lista* p = l;      /* ponteiro para percorrer a lista*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /*  procura elemento na lista, guardando anterior */</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> while (p != NULL &amp;&amp; p-&gt;info != v) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ant = p;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    p = p-&gt;prox;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /*  Verifica se achou elemento */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (p == NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   printf ("Nao encontrou elemento para DELETAR :  %d\n", v );  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   return 1;       /*      não achou, retorna lista original*/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /*  Retira  elemento */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (ant == NULL)  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* retira elemento do início*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      l = p-&gt;prox;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     /*  retira elemento do meio da lista*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ant-&gt;prox = p-&gt;prox;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     free(p);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     return 0;</t>
+  </si>
+  <si>
+    <t>/*                                  M A I N                                          */</t>
+  </si>
+  <si>
+    <t>int main (void)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Lista* l;                     /* Declara uma lista não inicializada*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   l = lst_cria( );           /* Declara uma lista não inicializada*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   printf("*                    Resultado na memoria            *\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   l = lst_insere(l, 10);   /* Insere na lista o valor requeriedo*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    l = lst_insere(l, 20);   /* Insere na lista o valor requeriedo*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    l = lst_insere(l, 23);   /* Insere na lista o valor requeriedo*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    l = lst_insere(l, 01);   /* Insere na lista o valor requeriedo*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    l = lst_insere(l, 22);   /* Insere na lista o valor requeriedo*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    l = lst_insere(l, 100);  /* Insere na lista o valor requeriedo */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    l = lst_insere(l, 45);   /* Insere na lista o valor requeriedo */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    l = lst_insere(l, 30);   /* Insere na lista o valor requeriedo */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   lst_imprime(l);           /* imprimirá os valores gravados na memória*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   lst_deleta(l, 90);   /* deleta  elemento*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   printf("*                    Deleta elemento 100            *\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   lst_deleta(l, 100);   /* deleta  elemento*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   return 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*   FATEC-ZL                     Estrutura de Dados                                     */ </t>
+  </si>
+  <si>
+    <t>/*                         Lab1 :  Listas - Estrutura de Arranjos                        */</t>
+  </si>
+  <si>
+    <t>/*                                  Prof. Carlos Henrique Veríssimo                        */</t>
+  </si>
+  <si>
+    <t>/*   Programa :   deleta.exe                                                                      */</t>
+  </si>
+  <si>
+    <t>/*   Função :     retira uma lista vazia,                                                     */</t>
+  </si>
+  <si>
+    <t>/*Função vazia : retorna 1 se vazia; 0 se não vazia                     */</t>
+  </si>
+  <si>
+    <t>int lst_vazia (Lista* l)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (l == NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       printf ("Lista V A Z I A\n");    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      printf ("Lista Nao Vazia\n") ;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      return 0;</t>
+  </si>
+  <si>
+    <t>/*Função busca : Busca um elemento na lista                              */</t>
+  </si>
+  <si>
+    <t>int lst_busca (Lista* l, int v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Lista* p;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   for (p=l; p!=NULL; p=p-&gt;prox) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      if (p-&gt;info == v) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      printf ("Encontrou  : %d\n", v);    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      /*return p;   */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   }   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    printf ("Nao encontrou  : %d\n", v);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   /*return NULL; /*não encontrou o elemento  */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   lst_vazia(l);      /* Verifica Lista Vazia*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   lst_busca(l, 30);   /* Busca elemento*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   printf("*                    Pesquisa elemento 100            *\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   lst_busca(l, 100);   /* Busca elemento*/</t>
+  </si>
+  <si>
+    <t>novo (113)</t>
+  </si>
+  <si>
+    <t>30 / 31</t>
+  </si>
+  <si>
+    <t>novo(114)</t>
+  </si>
+  <si>
+    <t>30/31</t>
+  </si>
+  <si>
+    <t>novo (115)</t>
+  </si>
+  <si>
+    <t>novo(116)</t>
+  </si>
+  <si>
+    <t>novo (117)</t>
+  </si>
+  <si>
+    <t>novo(118)</t>
+  </si>
+  <si>
+    <t>novo (119)</t>
+  </si>
+  <si>
+    <t>novo(120)</t>
+  </si>
+  <si>
+    <t>141F9</t>
+  </si>
+  <si>
+    <t>23 | 141A4</t>
+  </si>
+  <si>
+    <t>01 | 14154</t>
+  </si>
+  <si>
+    <t>22 | 141F8</t>
+  </si>
+  <si>
+    <t>100 | 1421C</t>
+  </si>
+  <si>
+    <t>45 | 141CC</t>
+  </si>
+  <si>
+    <t>30 | 14155</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>lst_deleta</t>
   </si>
   <si>
     <t>p</t>
   </si>
   <si>
-    <t>elemento_deletar</t>
-  </si>
-  <si>
-    <t>ant</t>
-  </si>
-  <si>
-    <t>....</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>opcao</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>lst_busca</t>
-  </si>
-  <si>
-    <t>lst_deleta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1414c</t>
-  </si>
-  <si>
-    <t>1417C</t>
-  </si>
-  <si>
-    <t>141A4</t>
-  </si>
-  <si>
-    <t>141F8</t>
-  </si>
-  <si>
-    <t>1421C</t>
-  </si>
-  <si>
-    <t>141CC</t>
-  </si>
-  <si>
-    <t>141EC</t>
-  </si>
-  <si>
-    <t>1422C</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>...</t>
   </si>
   <si>
-    <t>171/172</t>
-  </si>
-  <si>
-    <t>300 | NULL</t>
-  </si>
-  <si>
-    <t>145/146</t>
+    <t>Autor: Giovanni Cicero</t>
+  </si>
+  <si>
+    <t>Divulgação: 02/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estamos supondo que o usuário inseriu os números 10,20.23,01, 22, 100, 45, 30 e posteriormente excluiu o número 100 
+                 </t>
+  </si>
+  <si>
+    <t>novo (114)</t>
+  </si>
+  <si>
+    <t>novo (116)</t>
+  </si>
+  <si>
+    <t>novo (118)</t>
+  </si>
+  <si>
+    <t>141F4</t>
+  </si>
+  <si>
+    <t>141D4</t>
+  </si>
+  <si>
+    <t>novo (120)</t>
+  </si>
+  <si>
+    <t>141DC</t>
   </si>
   <si>
     <t>1414C</t>
-  </si>
-  <si>
-    <t>83/84</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>88/89</t>
-  </si>
-  <si>
-    <t>Legenda das cores</t>
-  </si>
-  <si>
-    <t>Nome da variável</t>
-  </si>
-  <si>
-    <t>Local no programa (Onde está definido)</t>
-  </si>
-  <si>
-    <t>Autor: Giovanni Cicero</t>
-  </si>
-  <si>
-    <t>Endereço de memória</t>
-  </si>
-  <si>
-    <t>Divulgação: 31/03/2024</t>
-  </si>
-  <si>
-    <t>Provoca Alteração ema memória</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estamos supondo que o usuário inseriu apenas o primeiro nó, consultou, excluiu 
-                  &gt; 1º nó = 300
-                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>elemento_inserir</t>
-  </si>
-  <si>
-    <t>Valor FINAL da memória</t>
-  </si>
-  <si>
-    <t>/*------------------------------------------------------------------------*/</t>
-  </si>
-  <si>
-    <t>/*   FATEC-São Caetano do Sul                 Estrutura de Dados          */</t>
-  </si>
-  <si>
-    <t>/*                         Giovanni Cicero                                */</t>
-  </si>
-  <si>
-    <t>/*             Objetivo: Lista Ligada                                     */</t>
-  </si>
-  <si>
-    <t>/*             Paradigama: - programação Estruturada                      */</t>
-  </si>
-  <si>
-    <t>/*                                                                        */</t>
-  </si>
-  <si>
-    <t>/*                                                         Data:31/03/2024*/</t>
-  </si>
-  <si>
-    <t>/*-------------------------------------------------------------------------*/</t>
-  </si>
-  <si>
-    <t>#include &lt;stdio.h&gt;</t>
-  </si>
-  <si>
-    <t>#include &lt;stdlib.h&gt;</t>
-  </si>
-  <si>
-    <t>struct lista {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  int info;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  struct lista *prox;</t>
-  </si>
-  <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t>typedef struct lista Lista;</t>
-  </si>
-  <si>
-    <t>/*----------------------------------------------------------------------*/</t>
-  </si>
-  <si>
-    <t>/*        função insere : insere os valores no inicio da lista          */</t>
-  </si>
-  <si>
-    <t>Lista *lst_insere(Lista *l, int i) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Lista *novo = (Lista *)malloc(sizeof(Lista));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if (novo == NULL) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    printf("Erro: não foi possível alocar memória para novo elemento.\n");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    exit(EXIT_FAILURE);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  novo-&gt;info = i;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  novo-&gt;prox = l;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  return novo;</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>/*        função imprime : Imprime valores dos elementos                */</t>
-  </si>
-  <si>
-    <t>void lst_imprime(Lista *l) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if (l == NULL) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    printf("Lista Vazia\n");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return; // Retorna imediatamente se a lista estiver vazia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Lista *p; /*Variável auxiliar para percorrer a lista */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  for (p = l; p != NULL; p = p-&gt;prox)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    printf("%d\n", p-&gt;info);</t>
-  </si>
-  <si>
-    <t>/*         função busca : Busca um elemento na lista                    */</t>
-  </si>
-  <si>
-    <t>int lst_busca(Lista *l, int v) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Lista *p;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  for (p = l; p != NULL; p = p-&gt;prox) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (p-&gt;info == v) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      printf("Encontrou  : %d\n", v);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      return 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  printf("Nao encontrou  : %d\n", v);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  return 0;</t>
-  </si>
-  <si>
-    <t>/*          função libera: "Destroi" a lista da memória                 */</t>
-  </si>
-  <si>
-    <t>void lst_libera(Lista *l) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Lista *p = l;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  while (p != NULL) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Lista *t = p-&gt;prox; /* guarda referência para Próximo Elemento */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    free(p);            /* libera a memória apontada por p*/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    p = t;              /* aponta p para o próximo*/</t>
-  </si>
-  <si>
-    <t>/*           função deleta : deleta elemento da lista                   */</t>
-  </si>
-  <si>
-    <t>Lista *lst_deleta(Lista *l, int v) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Lista *ant = NULL; /* ponteiro para elemento anterior*/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Lista *p = l;      /* ponteiro para percorrer a lista*/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  /*  procura elemento na lista, guardando anterior */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  while (p != NULL &amp;&amp; p-&gt;info != v) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ant = p;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    p = p-&gt;prox;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  /*  Verifica se achou elemento */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if (p == NULL) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    printf("Nao encontrou elemento para DELETAR :  %d\n", v);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return l; /* retorna lista original, não foi feita nenhuma modificação */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  /* Retira elemento */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if (ant == NULL) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /* retira elemento do início*/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    l = p-&gt;prox;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  } else {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /*  retira elemento do meio da lista*/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ant-&gt;prox = p-&gt;prox;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  free(p);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  return l;</t>
-  </si>
-  <si>
-    <t>/*           função menu : cria o menu de opções                        */</t>
-  </si>
-  <si>
-    <t>int menu(void) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  int opt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  printf("Escolha a opcao\n");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  printf("0. Sair\n");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  printf("1. Incluir\n");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  printf("2. Consultar\n");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  printf("3. Deletar\n");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  printf("4. Listar\n");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  printf("Opcao: ");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  scanf("%d", &amp;opt);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  return opt;</t>
-  </si>
-  <si>
-    <t>/*           função opcao : indexador das opções do menu                */</t>
-  </si>
-  <si>
-    <t>void opcao(Lista **l, int op) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  switch (op) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  case 0:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    break; // Não faz nada, a lista será liberada depois do loop do-while</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  case 1:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    printf("Informe o elemento a ser inserido: ");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int elemento_inserir;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    scanf("%d", &amp;elemento_inserir);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    *l = lst_insere(*l, elemento_inserir);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    break;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  case 2:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    printf("Informe o elemento a ser consultado: ");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int elemento;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    scanf("%d", &amp;elemento);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    lst_busca(*l, elemento);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  case 3:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    printf("Informe o elemento a ser deletado: ");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int elemento_deletar;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    scanf("%d", &amp;elemento_deletar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    *l = lst_deleta(*l, elemento_deletar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  case 4:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    lst_imprime(*l);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  default:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    printf("Comando invalido\n\n");</t>
-  </si>
-  <si>
-    <t>/*                                  M A I N */</t>
-  </si>
-  <si>
-    <t>int main(void) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Lista *l;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  do {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    opt = menu();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    opcao(&amp;l, opt);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  } while (opt);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  lst_libera(l);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,30 +582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3B3B3B"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFAF00DB"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -694,45 +614,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF7030A0"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,12 +731,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -813,7 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,19 +828,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1023,17 +952,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1131,23 +1049,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1156,133 +1096,111 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,28 +1209,71 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2059,931 +2020,1310 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00DF403-74FA-4130-A467-445A90C1AA14}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="F11:S47"/>
+  <dimension ref="F11:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="15" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="6:19" ht="135" customHeight="1"/>
-    <row r="12" spans="6:19" ht="135" customHeight="1">
-      <c r="I12" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-    </row>
-    <row r="13" spans="6:19" ht="15.75" thickBot="1">
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-    </row>
-    <row r="14" spans="6:19">
-      <c r="F14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="26" t="s">
+    <row r="11" spans="6:17" ht="135" customHeight="1"/>
+    <row r="12" spans="6:17" ht="135" customHeight="1">
+      <c r="I12" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="6:17" ht="15.75" thickBot="1">
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+    </row>
+    <row r="14" spans="6:17">
+      <c r="F14" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="26" t="s">
+      <c r="G14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" s="65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17" ht="15.75" thickBot="1">
+      <c r="F15" s="43"/>
+      <c r="G15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="26" t="s">
+      <c r="H15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q15" s="66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="6:17" ht="13.5" customHeight="1" thickBot="1">
+      <c r="F16" s="44"/>
+      <c r="G16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="21">
+        <v>14154</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>14204</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17">
+      <c r="F17" s="15">
+        <v>108</v>
+      </c>
+      <c r="G17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="6:19" ht="15.75" thickBot="1">
-      <c r="F15" s="51"/>
-      <c r="G15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="20" t="s">
+      <c r="H17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17">
+      <c r="F18" s="18">
+        <v>109</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17">
+      <c r="F19" s="15">
+        <v>29</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17">
+      <c r="F20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17">
+      <c r="F21" s="15">
+        <v>113</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17">
+      <c r="F22" s="18">
+        <v>29</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17">
+      <c r="F23" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17">
+      <c r="F24" s="18">
+        <v>114</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21"/>
-    </row>
-    <row r="16" spans="6:19" ht="13.5" customHeight="1" thickBot="1">
-      <c r="F16" s="52"/>
-      <c r="G16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="27">
+      <c r="H24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17">
+      <c r="F25" s="15">
+        <v>29</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17">
+      <c r="F26" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17">
+      <c r="F27" s="15">
+        <v>115</v>
+      </c>
+      <c r="G27" s="34">
         <v>14154</v>
       </c>
-      <c r="K16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="29"/>
-    </row>
-    <row r="17" spans="6:19">
-      <c r="F17" s="19">
-        <v>168</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="H27" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="43"/>
-    </row>
-    <row r="18" spans="6:19">
-      <c r="F18" s="23">
-        <v>167</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="44"/>
-    </row>
-    <row r="19" spans="6:19">
-      <c r="F19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="40">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="45"/>
-    </row>
-    <row r="20" spans="6:19">
-      <c r="F20" s="23">
-        <v>139</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="24">
-        <v>1</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="44"/>
-    </row>
-    <row r="21" spans="6:19">
-      <c r="F21" s="19">
-        <v>140</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="13">
-        <v>1</v>
-      </c>
-      <c r="I21" s="40">
-        <v>300</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="45"/>
-    </row>
-    <row r="22" spans="6:19">
-      <c r="F22" s="23">
-        <v>141</v>
-      </c>
-      <c r="G22" s="40">
-        <v>14154</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="44"/>
-    </row>
-    <row r="23" spans="6:19">
-      <c r="F23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="13">
-        <v>14154</v>
-      </c>
-      <c r="H23" s="40">
-        <v>2</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="45"/>
-    </row>
-    <row r="24" spans="6:19">
-      <c r="F24" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="24">
-        <v>14154</v>
-      </c>
-      <c r="H24" s="24">
-        <v>2</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="40">
-        <v>300</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="44"/>
-    </row>
-    <row r="25" spans="6:19">
-      <c r="F25" s="19">
-        <v>54</v>
-      </c>
-      <c r="G25" s="13">
-        <v>14154</v>
-      </c>
-      <c r="H25" s="13">
-        <v>2</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="22">
-        <v>300</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="45"/>
-    </row>
-    <row r="26" spans="6:19">
-      <c r="F26" s="23">
-        <v>55</v>
-      </c>
-      <c r="G26" s="24">
-        <v>14154</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="44"/>
-    </row>
-    <row r="27" spans="6:19">
-      <c r="F27" s="19">
-        <v>171</v>
-      </c>
-      <c r="G27" s="13">
-        <v>14154</v>
-      </c>
-      <c r="H27" s="40">
-        <v>3</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17">
+      <c r="F28" s="18">
+        <v>29</v>
+      </c>
+      <c r="G28" s="19">
+        <v>14154</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="45"/>
-    </row>
-    <row r="28" spans="6:19">
-      <c r="F28" s="23">
-        <v>151</v>
-      </c>
-      <c r="G28" s="24">
-        <v>14154</v>
-      </c>
-      <c r="H28" s="24">
-        <v>3</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="24">
-        <v>300</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="44"/>
-    </row>
-    <row r="29" spans="6:19">
-      <c r="F29" s="19" t="s">
-        <v>30</v>
+      <c r="J28" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17">
+      <c r="F29" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="G29" s="13">
         <v>14154</v>
       </c>
-      <c r="H29" s="13">
-        <v>3</v>
+      <c r="H29" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17">
+      <c r="F30" s="18">
+        <v>116</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="13">
-        <v>300</v>
-      </c>
-      <c r="N29" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="40" t="s">
+      <c r="J30" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L30" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17">
+      <c r="F31" s="15">
         <v>29</v>
       </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="45"/>
-    </row>
-    <row r="30" spans="6:19">
-      <c r="F30" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="24">
-        <v>14154</v>
-      </c>
-      <c r="H30" s="24">
-        <v>3</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="24">
-        <v>300</v>
-      </c>
-      <c r="N30" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="44"/>
-    </row>
-    <row r="31" spans="6:19">
-      <c r="F31" s="19">
-        <v>101</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="40" t="s">
+      <c r="G31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="K31" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17">
+      <c r="F32" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="J32" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="M32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17">
+      <c r="F33" s="15">
+        <v>117</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="40" t="s">
+      <c r="I33" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="13" t="s">
+      <c r="J33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17">
+      <c r="F34" s="18">
         <v>29</v>
       </c>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="45"/>
-    </row>
-    <row r="32" spans="6:19">
-      <c r="F32" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="24">
-        <v>0</v>
-      </c>
-      <c r="I32" s="24" t="s">
+      <c r="G34" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="24" t="s">
+      <c r="J34" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17">
+      <c r="F35" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="J35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17">
+      <c r="F36" s="18">
+        <v>118</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="I36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="40" t="s">
+      <c r="J36" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="N36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17">
+      <c r="F37" s="15">
+        <v>29</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="J37" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17">
+      <c r="F38" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="44"/>
-    </row>
-    <row r="33" spans="6:19">
-      <c r="F33" s="19"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="45"/>
-    </row>
-    <row r="34" spans="6:19">
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="44"/>
-    </row>
-    <row r="35" spans="6:19">
-      <c r="F35" s="19"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="45"/>
-    </row>
-    <row r="36" spans="6:19">
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="44"/>
-    </row>
-    <row r="37" spans="6:19">
-      <c r="F37" s="19"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="45"/>
-    </row>
-    <row r="38" spans="6:19">
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="44"/>
-    </row>
-    <row r="39" spans="6:19">
-      <c r="F39" s="19"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="45"/>
-    </row>
-    <row r="40" spans="6:19">
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="44"/>
-    </row>
-    <row r="41" spans="6:19">
-      <c r="F41" s="19"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="45"/>
-    </row>
-    <row r="43" spans="6:19" ht="15.75" thickBot="1">
-      <c r="G43" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="6:19">
-      <c r="G44" s="30"/>
-      <c r="H44" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="55"/>
-      <c r="J44" s="56"/>
-    </row>
-    <row r="45" spans="6:19">
-      <c r="G45" s="31"/>
-      <c r="H45" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49"/>
-      <c r="Q45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="6:19">
-      <c r="G46" s="32"/>
-      <c r="H46" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="48"/>
-      <c r="J46" s="49"/>
-      <c r="Q46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="6:19" ht="15.75" thickBot="1">
-      <c r="G47" s="33"/>
-      <c r="H47" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="46"/>
-      <c r="J47" s="47"/>
+      <c r="J38" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="O38" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17">
+      <c r="F39" s="15">
+        <v>119</v>
+      </c>
+      <c r="G39" s="34">
+        <v>14155</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17">
+      <c r="F40" s="18">
+        <v>29</v>
+      </c>
+      <c r="G40" s="19">
+        <v>14155</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17">
+      <c r="F41" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="13">
+        <v>14155</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O41" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17">
+      <c r="F42" s="18">
+        <v>120</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="P42" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17">
+      <c r="F43" s="15">
+        <v>79</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P43" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17">
+      <c r="F44" s="18">
+        <v>80</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="P44" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="6:17">
+      <c r="F45" s="15">
+        <v>127</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M45" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="6:13" ht="15.75" thickBot="1">
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="6:13">
+      <c r="F50" s="22"/>
+      <c r="G50" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="47"/>
+      <c r="I50" s="48"/>
+      <c r="M50" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="6:13">
+      <c r="F51" s="23"/>
+      <c r="G51" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="40"/>
+      <c r="I51" s="41"/>
+      <c r="M51" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="6:13">
+      <c r="F52" s="24"/>
+      <c r="G52" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="40"/>
+      <c r="I52" s="41"/>
+    </row>
+    <row r="53" spans="6:13" ht="15.75" thickBot="1">
+      <c r="F53" s="25"/>
+      <c r="G53" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="38"/>
+      <c r="I53" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G51:I51"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="G13:S13"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G52:I52"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2996,11 +3336,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38199A2E-AE6F-4472-A210-469733BF6DD3}">
   <dimension ref="A8:T35"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="1"/>
     <col min="6" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3015,16 +3355,16 @@
   <sheetData>
     <row r="8" spans="3:20" ht="135" customHeight="1"/>
     <row r="9" spans="3:20" ht="135" customHeight="1">
-      <c r="I9" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="I9" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="12" spans="3:20" ht="15.75" thickBot="1">
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:20" s="8" customFormat="1" ht="24">
@@ -3036,7 +3376,7 @@
         <f t="shared" ref="G13:T13" si="0">DEC2HEX(HEX2DEC(F13)+HEX2DEC($A$27))</f>
         <v>14148</v>
       </c>
-      <c r="H13" s="38" t="str">
+      <c r="H13" s="28" t="str">
         <f t="shared" si="0"/>
         <v>1414C</v>
       </c>
@@ -3044,7 +3384,7 @@
         <f t="shared" si="0"/>
         <v>14150</v>
       </c>
-      <c r="J13" s="38" t="str">
+      <c r="J13" s="28" t="str">
         <f t="shared" si="0"/>
         <v>14154</v>
       </c>
@@ -3084,7 +3424,7 @@
         <f t="shared" si="0"/>
         <v>14178</v>
       </c>
-      <c r="T13" s="38" t="str">
+      <c r="T13" s="28" t="str">
         <f t="shared" si="0"/>
         <v>1417C</v>
       </c>
@@ -3092,17 +3432,17 @@
     <row r="14" spans="3:20" s="8" customFormat="1" ht="24.75" thickBot="1">
       <c r="C14" s="9"/>
       <c r="F14" s="10" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="37" t="s">
-        <v>5</v>
+      <c r="J14" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -3112,32 +3452,32 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S14" s="10"/>
-      <c r="T14" s="37" t="s">
-        <v>3</v>
+      <c r="T14" s="27" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="3:20" ht="24">
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="36" t="s">
-        <v>27</v>
+      <c r="J15" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -3146,10 +3486,10 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S15" s="6"/>
-      <c r="T15" s="36" t="s">
+      <c r="T15" s="26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3208,8 +3548,8 @@
         <f t="shared" si="1"/>
         <v>141A0</v>
       </c>
-      <c r="O17" s="38" t="str">
-        <f t="shared" si="1"/>
+      <c r="O17" s="28" t="str">
+        <f>DEC2HEX(HEX2DEC(N17)+HEX2DEC($A$27))</f>
         <v>141A4</v>
       </c>
       <c r="P17" s="12" t="str">
@@ -3244,8 +3584,8 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="37" t="s">
-        <v>43</v>
+      <c r="O18" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -3255,9 +3595,7 @@
     </row>
     <row r="19" spans="1:20" ht="24">
       <c r="C19" s="2"/>
-      <c r="F19" s="6">
-        <v>20</v>
-      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -3266,7 +3604,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="36" t="s">
+      <c r="O19" s="26" t="s">
         <v>25</v>
       </c>
       <c r="P19" s="6"/>
@@ -3310,7 +3648,7 @@
         <f t="shared" si="2"/>
         <v>141C8</v>
       </c>
-      <c r="J21" s="38" t="str">
+      <c r="J21" s="28" t="str">
         <f t="shared" si="2"/>
         <v>141CC</v>
       </c>
@@ -3318,7 +3656,7 @@
         <f t="shared" si="2"/>
         <v>141D0</v>
       </c>
-      <c r="L21" s="12" t="str">
+      <c r="L21" s="28" t="str">
         <f t="shared" si="2"/>
         <v>141D4</v>
       </c>
@@ -3326,7 +3664,7 @@
         <f t="shared" si="2"/>
         <v>141D8</v>
       </c>
-      <c r="N21" s="12" t="str">
+      <c r="N21" s="28" t="str">
         <f t="shared" si="2"/>
         <v>141DC</v>
       </c>
@@ -3342,7 +3680,7 @@
         <f t="shared" si="2"/>
         <v>141E8</v>
       </c>
-      <c r="R21" s="61" t="str">
+      <c r="R21" s="12" t="str">
         <f t="shared" si="2"/>
         <v>141EC</v>
       </c>
@@ -3350,58 +3688,66 @@
         <f t="shared" si="2"/>
         <v>141F0</v>
       </c>
-      <c r="T21" s="12" t="str">
+      <c r="T21" s="28" t="str">
         <f t="shared" si="2"/>
         <v>141F4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="8" customFormat="1" ht="24">
+    <row r="22" spans="1:20" s="8" customFormat="1" ht="24.75" thickBot="1">
       <c r="C22" s="9"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="37" t="s">
-        <v>8</v>
+      <c r="J22" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="56" t="s">
+        <v>131</v>
+      </c>
       <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
+      <c r="N22" s="55" t="s">
+        <v>140</v>
+      </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="63" t="s">
-        <v>9</v>
-      </c>
+      <c r="R22" s="11"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
+      <c r="T22" s="57" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="24">
       <c r="C23" s="2"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="36" t="s">
-        <v>25</v>
+      <c r="J23" s="54" t="s">
+        <v>5</v>
       </c>
       <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="69" t="s">
+        <v>138</v>
+      </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="N23" s="70" t="s">
+        <v>6</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="62" t="s">
-        <v>25</v>
-      </c>
+      <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
+      <c r="T23" s="71" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="24.75" thickBot="1">
       <c r="C24" s="2"/>
@@ -3422,7 +3768,7 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" s="8" customFormat="1" ht="24">
-      <c r="F25" s="38" t="str">
+      <c r="F25" s="28" t="str">
         <f>DEC2HEX(HEX2DEC(T21)+HEX2DEC($A$27))</f>
         <v>141F8</v>
       </c>
@@ -3434,7 +3780,7 @@
         <f t="shared" si="3"/>
         <v>14200</v>
       </c>
-      <c r="I25" s="12" t="str">
+      <c r="I25" s="28" t="str">
         <f t="shared" si="3"/>
         <v>14204</v>
       </c>
@@ -3458,7 +3804,7 @@
         <f t="shared" si="3"/>
         <v>14218</v>
       </c>
-      <c r="O25" s="38" t="str">
+      <c r="O25" s="28" t="str">
         <f t="shared" si="3"/>
         <v>1421C</v>
       </c>
@@ -3474,7 +3820,7 @@
         <f t="shared" si="3"/>
         <v>14228</v>
       </c>
-      <c r="S25" s="61" t="str">
+      <c r="S25" s="12" t="str">
         <f t="shared" si="3"/>
         <v>1422C</v>
       </c>
@@ -3483,28 +3829,28 @@
         <v>14230</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="24">
+    <row r="26" spans="1:20" ht="24.75" thickBot="1">
       <c r="C26" s="2"/>
-      <c r="F26" s="37" t="s">
-        <v>6</v>
+      <c r="F26" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="56" t="s">
+        <v>142</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="37" t="s">
-        <v>7</v>
+      <c r="O26" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="64" t="s">
-        <v>7</v>
-      </c>
+      <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" ht="24">
@@ -3515,26 +3861,26 @@
         <v>4</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="F27" s="36" t="s">
-        <v>25</v>
+      <c r="F27" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="70" t="s">
+        <v>6</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="36" t="s">
-        <v>24</v>
+      <c r="O27" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="62" t="s">
-        <v>25</v>
-      </c>
+      <c r="S27" s="6"/>
       <c r="T27" s="6"/>
     </row>
     <row r="28" spans="1:20">
@@ -3544,37 +3890,37 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1">
       <c r="G32" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="7:17">
-      <c r="G33" s="30"/>
-      <c r="H33" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="58"/>
-      <c r="J33" s="59"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
     </row>
     <row r="34" spans="7:17">
-      <c r="G34" s="32"/>
-      <c r="H34" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
       <c r="Q34" s="1" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="7:17" ht="15.75" thickBot="1">
-      <c r="G35" s="33"/>
-      <c r="H35" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="46"/>
-      <c r="J35" s="47"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
       <c r="Q35" s="1" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3591,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FA875A-0E7B-40F6-AAE8-D3CFE27A5F89}">
-  <dimension ref="B3:C179"/>
+  <dimension ref="B3:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3607,691 +3953,719 @@
       <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>45</v>
+      <c r="C3" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>46</v>
+      <c r="C4" s="30" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>47</v>
+      <c r="C5" s="30" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>48</v>
+      <c r="C6" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="14">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>49</v>
+      <c r="C7" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="14">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>50</v>
+      <c r="C8" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="14">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>51</v>
+      <c r="C9" s="30" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>52</v>
+      <c r="C10" s="30" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="14">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>53</v>
+      <c r="C11" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>54</v>
+      <c r="C12" s="29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="29" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="14">
         <v>12</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>55</v>
+      <c r="C14" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="14">
         <v>13</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>56</v>
+      <c r="C15" s="31" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="14">
         <v>14</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>57</v>
+      <c r="C16" s="29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="14">
         <v>15</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>58</v>
+      <c r="C17" s="30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
+      <c r="C18" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="14">
         <v>17</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="31" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="14">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>60</v>
+      <c r="C20" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="14">
         <v>19</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>61</v>
+      <c r="C21" s="31" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="14">
         <v>20</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>60</v>
+      <c r="C22" s="31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="14">
         <v>21</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="31" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="14">
         <v>22</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>62</v>
+      <c r="C24" s="31" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="14">
         <v>23</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>63</v>
+      <c r="C25" s="29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="14">
         <v>24</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>64</v>
+      <c r="C26" s="31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="14">
         <v>25</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>65</v>
+      <c r="C27" s="30" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="14">
         <v>26</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>66</v>
+      <c r="C28" s="31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="14">
         <v>27</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>67</v>
+      <c r="C29" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="14">
         <v>28</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="31" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="14">
         <v>29</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>68</v>
+      <c r="C31" s="31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="14">
         <v>30</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>69</v>
+      <c r="C32" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="14">
         <v>31</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>70</v>
+      <c r="C33" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="14">
         <v>32</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>71</v>
+      <c r="C34" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="14">
         <v>33</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="31" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="14">
         <v>34</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>60</v>
+      <c r="C36" s="30" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="14">
         <v>35</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>72</v>
+      <c r="C37" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="14">
         <v>36</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>60</v>
+      <c r="C38" s="31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="14">
         <v>37</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="31" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="14">
         <v>38</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>73</v>
+      <c r="C40" s="31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="14">
         <v>39</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>74</v>
+      <c r="C41" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="14">
         <v>40</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>75</v>
+      <c r="C42" s="31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="14">
         <v>41</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>76</v>
+      <c r="C43" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="14">
         <v>42</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>67</v>
+      <c r="C44" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="14">
         <v>43</v>
       </c>
-      <c r="C45" s="39"/>
+      <c r="C45" s="31" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="14">
         <v>44</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>77</v>
+      <c r="C46" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="14">
         <v>45</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>78</v>
+      <c r="C47" s="31" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="14">
         <v>46</v>
       </c>
-      <c r="C48" s="39" t="s">
-        <v>79</v>
+      <c r="C48" s="31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="14">
         <v>47</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>71</v>
+      <c r="C49" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="14">
         <v>48</v>
       </c>
-      <c r="C50" s="39"/>
+      <c r="C50" s="31" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="14">
         <v>49</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>60</v>
+      <c r="C51" s="31" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="14">
         <v>50</v>
       </c>
-      <c r="C52" s="39" t="s">
-        <v>80</v>
+      <c r="C52" s="31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="14">
         <v>51</v>
       </c>
-      <c r="C53" s="39" t="s">
-        <v>60</v>
+      <c r="C53" s="31" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="14">
         <v>52</v>
       </c>
-      <c r="C54" s="39"/>
+      <c r="C54" s="31" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="14">
         <v>53</v>
       </c>
-      <c r="C55" s="39" t="s">
-        <v>81</v>
+      <c r="C55" s="31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="14">
         <v>54</v>
       </c>
-      <c r="C56" s="39" t="s">
-        <v>82</v>
+      <c r="C56" s="31" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="14">
         <v>55</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>83</v>
+      <c r="C57" s="31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="14">
         <v>56</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>84</v>
+      <c r="C58" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="14">
         <v>57</v>
       </c>
-      <c r="C59" s="39" t="s">
-        <v>85</v>
+      <c r="C59" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="14">
         <v>58</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>86</v>
+      <c r="C60" s="31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="14">
         <v>59</v>
       </c>
-      <c r="C61" s="39" t="s">
-        <v>87</v>
+      <c r="C61" s="52" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="14">
         <v>60</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>67</v>
+      <c r="C62" s="52" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="14">
         <v>61</v>
       </c>
-      <c r="C63" s="39" t="s">
-        <v>88</v>
+      <c r="C63" s="52" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="14">
         <v>62</v>
       </c>
-      <c r="C64" s="39" t="s">
-        <v>89</v>
+      <c r="C64" s="52" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="14">
         <v>63</v>
       </c>
-      <c r="C65" s="39" t="s">
-        <v>71</v>
+      <c r="C65" s="52" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="14">
         <v>64</v>
       </c>
-      <c r="C66" s="39"/>
+      <c r="C66" s="52" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="14">
         <v>65</v>
       </c>
-      <c r="C67" s="39" t="s">
-        <v>60</v>
+      <c r="C67" s="52" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="14">
         <v>66</v>
       </c>
-      <c r="C68" s="39" t="s">
-        <v>90</v>
+      <c r="C68" s="52" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="14">
         <v>67</v>
       </c>
-      <c r="C69" s="39" t="s">
-        <v>60</v>
+      <c r="C69" s="52" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="14">
         <v>68</v>
       </c>
-      <c r="C70" s="39"/>
+      <c r="C70" s="52" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="14">
         <v>69</v>
       </c>
-      <c r="C71" s="39" t="s">
-        <v>91</v>
+      <c r="C71" s="52" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="14">
         <v>70</v>
       </c>
-      <c r="C72" s="39" t="s">
-        <v>92</v>
+      <c r="C72" s="52" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="14">
         <v>71</v>
       </c>
-      <c r="C73" s="39" t="s">
-        <v>93</v>
+      <c r="C73" s="52" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="14">
         <v>72</v>
       </c>
-      <c r="C74" s="39" t="s">
-        <v>94</v>
+      <c r="C74" s="52" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="14">
         <v>73</v>
       </c>
-      <c r="C75" s="39" t="s">
-        <v>95</v>
+      <c r="C75" s="52" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="14">
         <v>74</v>
       </c>
-      <c r="C76" s="39" t="s">
-        <v>96</v>
+      <c r="C76" s="52" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="14">
         <v>75</v>
       </c>
-      <c r="C77" s="39" t="s">
-        <v>67</v>
+      <c r="C77" s="52" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="14">
         <v>76</v>
       </c>
-      <c r="C78" s="39" t="s">
-        <v>71</v>
+      <c r="C78" s="52" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="14">
         <v>77</v>
       </c>
-      <c r="C79" s="39"/>
+      <c r="C79" s="52" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="14">
         <v>78</v>
       </c>
-      <c r="C80" s="39" t="s">
-        <v>60</v>
+      <c r="C80" s="52" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="14">
         <v>79</v>
       </c>
-      <c r="C81" s="39" t="s">
-        <v>97</v>
+      <c r="C81" s="52" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="14">
         <v>80</v>
       </c>
-      <c r="C82" s="39" t="s">
-        <v>60</v>
+      <c r="C82" s="52" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="14">
         <v>81</v>
       </c>
-      <c r="C83" s="39"/>
+      <c r="C83" s="52" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="14">
         <v>82</v>
       </c>
-      <c r="C84" s="39" t="s">
-        <v>98</v>
+      <c r="C84" s="52" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="14">
         <v>83</v>
       </c>
-      <c r="C85" s="39" t="s">
-        <v>99</v>
+      <c r="C85" s="52" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="14">
         <v>84</v>
       </c>
-      <c r="C86" s="39" t="s">
-        <v>100</v>
+      <c r="C86" s="52" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="14">
         <v>85</v>
       </c>
-      <c r="C87" s="39"/>
+      <c r="C87" s="52" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="14">
         <v>86</v>
       </c>
-      <c r="C88" s="39" t="s">
-        <v>101</v>
+      <c r="C88" s="52" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="14">
         <v>87</v>
       </c>
-      <c r="C89" s="39" t="s">
-        <v>102</v>
+      <c r="C89" s="52" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="14">
         <v>88</v>
       </c>
-      <c r="C90" s="39" t="s">
-        <v>103</v>
+      <c r="C90" s="52" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="14">
         <v>89</v>
       </c>
-      <c r="C91" s="39" t="s">
-        <v>104</v>
+      <c r="C91" s="52" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="14">
         <v>90</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="52" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4299,678 +4673,339 @@
       <c r="B93" s="14">
         <v>91</v>
       </c>
-      <c r="C93" s="39"/>
+      <c r="C93" s="52" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="14">
         <v>92</v>
       </c>
-      <c r="C94" s="39" t="s">
-        <v>105</v>
+      <c r="C94" s="52" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="14">
         <v>93</v>
       </c>
-      <c r="C95" s="39" t="s">
-        <v>106</v>
+      <c r="C95" s="52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="14">
         <v>94</v>
       </c>
-      <c r="C96" s="39" t="s">
-        <v>107</v>
+      <c r="C96" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="14">
         <v>95</v>
       </c>
-      <c r="C97" s="39" t="s">
-        <v>108</v>
+      <c r="C97" s="52" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="14">
         <v>96</v>
       </c>
-      <c r="C98" s="39" t="s">
-        <v>67</v>
+      <c r="C98" s="52" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="14">
         <v>97</v>
       </c>
-      <c r="C99" s="39"/>
+      <c r="C99" s="52" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="14">
         <v>98</v>
       </c>
-      <c r="C100" s="39" t="s">
-        <v>109</v>
+      <c r="C100" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="14">
         <v>99</v>
       </c>
-      <c r="C101" s="39" t="s">
-        <v>110</v>
-      </c>
+      <c r="C101" s="52"/>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="14">
         <v>100</v>
       </c>
-      <c r="C102" s="39" t="s">
-        <v>111</v>
+      <c r="C102" s="52" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="14">
         <v>101</v>
       </c>
-      <c r="C103" s="39" t="s">
-        <v>112</v>
+      <c r="C103" s="52" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="14">
         <v>102</v>
       </c>
-      <c r="C104" s="39" t="s">
-        <v>113</v>
+      <c r="C104" s="52" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="14">
         <v>103</v>
       </c>
-      <c r="C105" s="39" t="s">
-        <v>114</v>
+      <c r="C105" s="52" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="14">
         <v>104</v>
       </c>
-      <c r="C106" s="39" t="s">
-        <v>115</v>
+      <c r="C106" s="52" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="14">
         <v>105</v>
       </c>
-      <c r="C107" s="39" t="s">
-        <v>67</v>
+      <c r="C107" s="52" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="14">
         <v>106</v>
       </c>
-      <c r="C108" s="39" t="s">
-        <v>116</v>
+      <c r="C108" s="52" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="14">
         <v>107</v>
       </c>
-      <c r="C109" s="39" t="s">
-        <v>117</v>
+      <c r="C109" s="52" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="14">
         <v>108</v>
       </c>
-      <c r="C110" s="39" t="s">
-        <v>71</v>
+      <c r="C110" s="52" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" s="14">
         <v>109</v>
       </c>
-      <c r="C111" s="39"/>
+      <c r="C111" s="52" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" s="14">
         <v>110</v>
       </c>
-      <c r="C112" s="39" t="s">
-        <v>60</v>
+      <c r="C112" s="52" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" s="14">
         <v>111</v>
       </c>
-      <c r="C113" s="39" t="s">
-        <v>118</v>
+      <c r="C113" s="52" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" s="14">
         <v>112</v>
       </c>
-      <c r="C114" s="39" t="s">
-        <v>60</v>
+      <c r="C114" s="52" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="14">
         <v>113</v>
       </c>
-      <c r="C115" s="39"/>
+      <c r="C115" s="52" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="14">
         <v>114</v>
       </c>
-      <c r="C116" s="39" t="s">
-        <v>119</v>
+      <c r="C116" s="52" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" s="14">
         <v>115</v>
       </c>
-      <c r="C117" s="39" t="s">
-        <v>120</v>
+      <c r="C117" s="52" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" s="14">
         <v>116</v>
       </c>
-      <c r="C118" s="39"/>
+      <c r="C118" s="52" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" s="14">
         <v>117</v>
       </c>
-      <c r="C119" s="39" t="s">
-        <v>121</v>
+      <c r="C119" s="52" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" s="14">
         <v>118</v>
       </c>
-      <c r="C120" s="39" t="s">
-        <v>122</v>
+      <c r="C120" s="52" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" s="14">
         <v>119</v>
       </c>
-      <c r="C121" s="39" t="s">
-        <v>123</v>
+      <c r="C121" s="52" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" s="14">
         <v>120</v>
       </c>
-      <c r="C122" s="39" t="s">
-        <v>124</v>
+      <c r="C122" s="52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="2:3">
       <c r="B123" s="14">
         <v>121</v>
       </c>
-      <c r="C123" s="39" t="s">
-        <v>125</v>
+      <c r="C123" s="52" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="B124" s="14">
         <v>122</v>
       </c>
-      <c r="C124" s="39" t="s">
-        <v>126</v>
+      <c r="C124" s="52" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" s="14">
         <v>123</v>
       </c>
-      <c r="C125" s="39" t="s">
-        <v>127</v>
+      <c r="C125" s="52" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="B126" s="14">
         <v>124</v>
       </c>
-      <c r="C126" s="39" t="s">
-        <v>128</v>
+      <c r="C126" s="52" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" s="14">
         <v>125</v>
       </c>
-      <c r="C127" s="39"/>
+      <c r="C127" s="52" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="128" spans="2:3">
       <c r="B128" s="14">
         <v>126</v>
       </c>
-      <c r="C128" s="39" t="s">
-        <v>129</v>
+      <c r="C128" s="52" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" s="14">
         <v>127</v>
       </c>
-      <c r="C129" s="39" t="s">
-        <v>71</v>
+      <c r="C129" s="52" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" s="14">
         <v>128</v>
       </c>
-      <c r="C130" s="39"/>
+      <c r="C130" s="52" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" s="14">
         <v>129</v>
       </c>
-      <c r="C131" s="39" t="s">
-        <v>60</v>
+      <c r="C131" s="52" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="14">
         <v>130</v>
       </c>
-      <c r="C132" s="39" t="s">
-        <v>130</v>
+      <c r="C132" s="52" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="2:3">
       <c r="B133" s="14">
         <v>131</v>
       </c>
-      <c r="C133" s="39" t="s">
-        <v>60</v>
+      <c r="C133" s="52" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" s="14">
         <v>132</v>
       </c>
-      <c r="C134" s="39"/>
-    </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="14">
-        <v>133</v>
-      </c>
-      <c r="C135" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="14">
-        <v>134</v>
-      </c>
-      <c r="C136" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="14">
-        <v>135</v>
-      </c>
-      <c r="C137" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3">
-      <c r="B138" s="14">
-        <v>136</v>
-      </c>
-      <c r="C138" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3">
-      <c r="B139" s="14">
-        <v>137</v>
-      </c>
-      <c r="C139" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="B140" s="14">
-        <v>138</v>
-      </c>
-      <c r="C140" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="B141" s="14">
-        <v>139</v>
-      </c>
-      <c r="C141" s="39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3">
-      <c r="B142" s="14">
-        <v>140</v>
-      </c>
-      <c r="C142" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="14">
-        <v>141</v>
-      </c>
-      <c r="C143" s="39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="14">
-        <v>142</v>
-      </c>
-      <c r="C144" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="14">
-        <v>143</v>
-      </c>
-      <c r="C145" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="14">
-        <v>144</v>
-      </c>
-      <c r="C146" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="14">
-        <v>145</v>
-      </c>
-      <c r="C147" s="39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="14">
-        <v>146</v>
-      </c>
-      <c r="C148" s="39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="B149" s="14">
-        <v>147</v>
-      </c>
-      <c r="C149" s="39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="14">
-        <v>148</v>
-      </c>
-      <c r="C150" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="14">
-        <v>149</v>
-      </c>
-      <c r="C151" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="14">
-        <v>150</v>
-      </c>
-      <c r="C152" s="39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="14">
-        <v>151</v>
-      </c>
-      <c r="C153" s="39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" s="14">
-        <v>152</v>
-      </c>
-      <c r="C154" s="39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="14">
-        <v>153</v>
-      </c>
-      <c r="C155" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="14">
-        <v>154</v>
-      </c>
-      <c r="C156" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="14">
-        <v>155</v>
-      </c>
-      <c r="C157" s="39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="14">
-        <v>156</v>
-      </c>
-      <c r="C158" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3">
-      <c r="B159" s="14">
-        <v>157</v>
-      </c>
-      <c r="C159" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3">
-      <c r="B160" s="14">
-        <v>158</v>
-      </c>
-      <c r="C160" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3">
-      <c r="B161" s="14">
-        <v>159</v>
-      </c>
-      <c r="C161" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3">
-      <c r="B162" s="14">
-        <v>160</v>
-      </c>
-      <c r="C162" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3">
-      <c r="B163" s="14">
-        <v>161</v>
-      </c>
-      <c r="C163" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3">
-      <c r="B164" s="14">
-        <v>162</v>
-      </c>
-      <c r="C164" s="39"/>
-    </row>
-    <row r="165" spans="2:3">
-      <c r="B165" s="14">
-        <v>163</v>
-      </c>
-      <c r="C165" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3">
-      <c r="B166" s="14">
-        <v>164</v>
-      </c>
-      <c r="C166" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3">
-      <c r="B167" s="14">
-        <v>165</v>
-      </c>
-      <c r="C167" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3">
-      <c r="B168" s="14">
-        <v>166</v>
-      </c>
-      <c r="C168" s="39"/>
-    </row>
-    <row r="169" spans="2:3">
-      <c r="B169" s="14">
-        <v>167</v>
-      </c>
-      <c r="C169" s="39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3">
-      <c r="B170" s="14">
-        <v>168</v>
-      </c>
-      <c r="C170" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3">
-      <c r="B171" s="14">
-        <v>169</v>
-      </c>
-      <c r="C171" s="39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3">
-      <c r="B172" s="14">
-        <v>170</v>
-      </c>
-      <c r="C172" s="39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3">
-      <c r="B173" s="14">
-        <v>171</v>
-      </c>
-      <c r="C173" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3">
-      <c r="B174" s="14">
-        <v>172</v>
-      </c>
-      <c r="C174" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3">
-      <c r="B175" s="14">
-        <v>173</v>
-      </c>
-      <c r="C175" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3">
-      <c r="B176" s="14">
-        <v>174</v>
-      </c>
-      <c r="C176" s="39"/>
-    </row>
-    <row r="177" spans="2:3">
-      <c r="B177" s="14">
-        <v>175</v>
-      </c>
-      <c r="C177" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3">
-      <c r="B178" s="14">
-        <v>176</v>
-      </c>
-      <c r="C178" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3">
-      <c r="B179" s="14">
-        <v>177</v>
-      </c>
-      <c r="C179" s="39" t="s">
-        <v>71</v>
+      <c r="C134" s="52" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5110,9 +5145,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C97F544-B895-46CA-BB62-135154545642}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C97F544-B895-46CA-BB62-135154545642}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a3306892-3390-418f-80d0-6f17b13876e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A11CE31-CF6A-4388-BFDC-10A1A7D0A6B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A11CE31-CF6A-4388-BFDC-10A1A7D0A6B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>